--- a/INTLINE/data/548/BNM/Balance of Payments (Detailed breakdownA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Balance of Payments (Detailed breakdownA_historical.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance of Payments (Detailed " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Balance of Payments (Detailed " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>ServicesCredit</t>
+  </si>
+  <si>
+    <t>ServicesDebit</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Government Goods and Services</t>
+  </si>
+  <si>
+    <t>Primary Income</t>
+  </si>
+  <si>
+    <t>Primary IncomeCredit</t>
+  </si>
+  <si>
+    <t>Primary IncomeDebit</t>
+  </si>
+  <si>
+    <t>Investment Income</t>
+  </si>
+  <si>
+    <t>Secondary Income</t>
+  </si>
+  <si>
+    <t>Net Errors and Omissions</t>
+  </si>
+  <si>
+    <t>Reserve Assets</t>
+  </si>
+  <si>
+    <t>Special Drawing Rights</t>
+  </si>
+  <si>
+    <t>IMF Reserve Position</t>
+  </si>
+  <si>
+    <t>Gold and Foreign Exchange</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +108,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +127,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1303 +424,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:24">
+      <c r="B1" s="1">
         <v>1999</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2000</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2001</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2002</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>2003</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>2004</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>2005</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>2006</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>2007</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>2008</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2009</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>2010</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2011</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>2012</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>2013</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>2014</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>2015</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>2016</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>2017</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>2018</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>2019</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Current Account</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>47895.3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>32251.9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>27687</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>30494</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>50624.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>57302.13733</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>78366.788</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>96028.54300000001</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>102190.401</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>131413.554</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>110726.906</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>82815.90199999997</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>99323.69280628201</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>50177.167</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>35485.33656191001</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>48553.59099999999</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>35154.78899999999</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>29907.27180000002</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>38296.14199999999</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>32295.01921594452</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>52918</v>
       </c>
-      <c r="W2" t="n">
-        <v>60007</v>
-      </c>
-      <c r="X2" t="n">
-        <v>53469</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Goods</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="W2">
+        <v>59091.072</v>
+      </c>
+      <c r="X2">
+        <v>58700.312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>86049</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>79144</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>69854</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>72117</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>97762.39999999999</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>104774.1821767</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>130152.228</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>139489.151</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>130825.219</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>170379.686</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>140355.212</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>124182.104</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>140528.592</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>113029.636</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>96551.50600000001</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>113326.694</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>109223.594</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>102045.828</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>117113.215</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>114620.761</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>124739</v>
       </c>
-      <c r="W3" t="n">
-        <v>138709</v>
-      </c>
-      <c r="X3" t="n">
-        <v>170220</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="W3">
+        <v>137486.41</v>
+      </c>
+      <c r="X3">
+        <v>170572.9399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>-10700.7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-10670.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-8366</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-5996</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-15300</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-8198.5643767</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-10872.026</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-9427.401</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1384.306</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1556.655</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>4173.359</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>6555.718000000004</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>1456.542806281992</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>-8541.891999999996</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-9592.493515429996</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>-10706.24499999999</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>-20631.58999999999</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>-18917.42599999999</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>-22858.415</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>-17514.93200000001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>-10875</v>
       </c>
-      <c r="W4" t="n">
-        <v>-47447</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-61070</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ServicesCredit</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
+      <c r="W4">
+        <v>-47161.31499999996</v>
+      </c>
+      <c r="X4">
+        <v>-60727.94699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>73013.86199999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>77290.518</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>99867.289</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>103640.519</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>98750.88</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>111465.807</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>118880.458</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>125337.417</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>132684.983</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>137618.263</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>136095.456</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>147595.66</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>159384.217</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>162374.513</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>170222</v>
       </c>
-      <c r="W5" t="n">
-        <v>92608</v>
-      </c>
-      <c r="X5" t="n">
-        <v>86501</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ServicesDebit</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="W5">
+        <v>92966.61400000002</v>
+      </c>
+      <c r="X5">
+        <v>86740.94899999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>83886.899</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>86717.91899999999</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>98482.98299999999</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>102084.387</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>94577.52099999999</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>104910.089</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>117423.915193718</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>133879.309</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>142277.47651543</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>148324.508</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>156727.046</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>166513.086</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>182242.632</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>179889.445</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>181096</v>
       </c>
-      <c r="W6" t="n">
-        <v>140055</v>
-      </c>
-      <c r="X6" t="n">
-        <v>147570</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="W6">
+        <v>140127.929</v>
+      </c>
+      <c r="X6">
+        <v>147468.896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>-15422.489</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-19285.319</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>-12569.822</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>-14811.832</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-15817.621</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>-17167.511</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>-19445.459</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>-22040.253</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>-23908.97</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>-26049.507</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>-24565.241</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>-23458.766</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>-29621.633</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>-27687.987</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>-25925</v>
       </c>
-      <c r="W7" t="n">
-        <v>-27353</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-32494</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="W7">
+        <v>-27427.2304</v>
+      </c>
+      <c r="X7">
+        <v>-32451.584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <v>18683.775</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>22633.052</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>29052.081</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>28509.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>32168.07</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>31617.111</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>28959.27799999999</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>24821.482</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>29166.84099999999</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>33233.037</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>26941.11800000001</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>31515.302</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>32469.633</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>30217.665</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>30833</v>
       </c>
-      <c r="W8" t="n">
-        <v>-7652</v>
-      </c>
-      <c r="X8" t="n">
-        <v>-14620</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Government Goods and Services</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="W8">
+        <v>-7568.741</v>
+      </c>
+      <c r="X8">
+        <v>-14563.251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>-349.784</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-439.676</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>-358.881</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>-589.554</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>-608.567</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-502.2619999999999</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>-523.515</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>-414.842</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>-218.409</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>-348.607</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>-602.8660000000002</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>-665.194</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>-1398.262</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>-757.537</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>-712</v>
       </c>
-      <c r="W9" t="n">
-        <v>-603</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Primary Income</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="W9">
+        <v>-614.1030000000001</v>
+      </c>
+      <c r="X9">
+        <v>-904.042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>-20886</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>-28909</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-25623</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-25061</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-22537</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-24402.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-23942.7</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-17294</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>-13984.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>-23032.87</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-14214.225</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>-26131.498</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>-21600.126</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>-35841.373</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>-33975.20292266001</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>-36623.83</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>-32111.92200000001</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>-34592.35520000001</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>-38658.272</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>-45082.18378405547</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>-39495</v>
       </c>
-      <c r="W10" t="n">
-        <v>-28584</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-46191</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Primary IncomeCredit</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="W10">
+        <v>-28520.201</v>
+      </c>
+      <c r="X10">
+        <v>-41550.52499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>20626.6</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>31107.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>39067.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>40335.457</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>39629.943</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>38351.81</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>52520.822</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>42296.888</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>47655.566</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>52395.137</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>48674.488</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>47452.4405</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>53706.464</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>60413.655</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>65345</v>
       </c>
-      <c r="W11" t="n">
-        <v>53922</v>
-      </c>
-      <c r="X11" t="n">
-        <v>91871</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Primary IncomeDebit</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
+      <c r="W11">
+        <v>53124.394</v>
+      </c>
+      <c r="X11">
+        <v>98165.69100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
         <v>44569.3</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>48401.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>53051.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>63368.327</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>53844.168</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>64483.308</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>74120.948</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>78138.261</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>81630.76892266001</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>89018.967</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>80786.41</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>82044.79569999999</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>92364.736</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>105495.8387840555</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>104840</v>
       </c>
-      <c r="W12" t="n">
-        <v>82505</v>
-      </c>
-      <c r="X12" t="n">
-        <v>138063</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Investment Income</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="W12">
+        <v>81644.594</v>
+      </c>
+      <c r="X12">
+        <v>139716.217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
         <v>-23407.9</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-16988.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-13362.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>-22139.213</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-12751.225</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>-24049.403</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>-19269.15800000001</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>-32759.633</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-29968.54032266</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>-31722.288</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>-26516.50100000001</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>-28985.8652</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>-33810.52</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>-37425.49978405546</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>-30266</v>
       </c>
-      <c r="W13" t="n">
-        <v>-20458</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-39637</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Secondary Income</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="W13">
+        <v>-20459.134</v>
+      </c>
+      <c r="X13">
+        <v>-34947.543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>-6567</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>-7313</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-8178</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-10566</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-9299.9</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-14871.38047</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-16970.714</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-16739.207</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-16034.624</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>-17489.917</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-19587.44</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-21790.422</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>-21061.316</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>-18469.204</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-17498.473</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>-17443.028</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>-21325.293</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>-18628.775</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>-17300.386</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>-19728.626</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>-21450</v>
       </c>
-      <c r="W14" t="n">
-        <v>-2670</v>
-      </c>
-      <c r="X14" t="n">
-        <v>-9492</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Net Errors and Omissions</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+      <c r="W14">
+        <v>-2713.822</v>
+      </c>
+      <c r="X14">
+        <v>-9594.155999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
         <v>-12330.18</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-20539.535</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-12234.1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>-25428.261</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>-27367.39</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>-65387.44399999999</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>-27773.61240628201</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>-23531.21100000001</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>-605.3375619099979</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>-5450.687380999996</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>25081.55500000001</v>
       </c>
-      <c r="S15" t="n">
-        <v>-23899.126</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-17131.594</v>
-      </c>
-      <c r="U15" t="n">
-        <v>-35878.136</v>
-      </c>
-      <c r="V15" t="n">
-        <v>-6848.748999999983</v>
-      </c>
-      <c r="W15" t="n">
-        <v>-2721.071903969894</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-36712.40001525776</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Reserve Assets</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="S15">
+        <v>-23899.12609913995</v>
+      </c>
+      <c r="T15">
+        <v>-17131.87751385999</v>
+      </c>
+      <c r="U15">
+        <v>-35878.13721594452</v>
+      </c>
+      <c r="V15">
+        <v>-6846</v>
+      </c>
+      <c r="W15">
+        <v>-572.149</v>
+      </c>
+      <c r="X15">
+        <v>-25465.333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
         <v>-29046.18</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>-32102.882</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>-50893.052</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>12425.487</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>-3134.823</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>2627.554</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>-94681.86500000001</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>-3873.014000000002</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>-14648.73</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>36507.448</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>-3750.258999999997</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>-5860.346900860053</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>-16408.56548614</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>-7758.251999999999</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>-8416</v>
       </c>
-      <c r="W16" t="n">
-        <v>19297</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-45631</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Special Drawing Rights</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="W16">
+        <v>19296.595</v>
+      </c>
+      <c r="X16">
+        <v>-45685.716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
         <v>16.981</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>-8.581</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-3.974</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>-25.501</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>-6492.774</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>836.658</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>189.519</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>209.498</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>-444.611</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>-29.82899999999998</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>-1138.296</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>2700.02072286</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>219.365</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>8.599000000000011</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>67</v>
       </c>
-      <c r="W17" t="n">
-        <v>-107</v>
-      </c>
-      <c r="X17" t="n">
-        <v>-20340</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>IMF Reserve Position</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="W17">
+        <v>-107.047</v>
+      </c>
+      <c r="X17">
+        <v>-20339.401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
         <v>1882.037</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>392.96</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>175.904</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-509.593</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>-388.777</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>62.32100000000001</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>-1218.683</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>19.40400000000001</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>-530.319</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>-112.098</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>3.945999999999955</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>-176.16668944</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>351.1695138599998</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>-685.0939999999999</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>-782</v>
       </c>
-      <c r="W18" t="n">
-        <v>-1245</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Gold and Foreign Exchange</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="W18">
+        <v>-1245.726</v>
+      </c>
+      <c r="X18">
+        <v>-121.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
         <v>-30945.198</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>-32487.261</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-51064.982</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>12960.581</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>3746.728</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>1728.575000000001</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>-93652.701</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>-4101.916</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>-13673.8</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>36649.375</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>-2615.908999999998</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>-8384.200934280052</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>-16979.1</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>-7081.756999999998</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>-7699</v>
       </c>
-      <c r="W19" t="n">
-        <v>20649</v>
-      </c>
-      <c r="X19" t="n">
-        <v>-25170</v>
+      <c r="W19">
+        <v>20649.368</v>
+      </c>
+      <c r="X19">
+        <v>-25224.845</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/BNM/Balance of Payments (Detailed breakdownA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Balance of Payments (Detailed breakdownA_historical.xlsx
@@ -1,99 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance of Payments (Detailed " sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance of Payments (Detailed " sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>ServicesCredit</t>
-  </si>
-  <si>
-    <t>ServicesDebit</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Government Goods and Services</t>
-  </si>
-  <si>
-    <t>Primary Income</t>
-  </si>
-  <si>
-    <t>Primary IncomeCredit</t>
-  </si>
-  <si>
-    <t>Primary IncomeDebit</t>
-  </si>
-  <si>
-    <t>Investment Income</t>
-  </si>
-  <si>
-    <t>Secondary Income</t>
-  </si>
-  <si>
-    <t>Net Errors and Omissions</t>
-  </si>
-  <si>
-    <t>Reserve Assets</t>
-  </si>
-  <si>
-    <t>Special Drawing Rights</t>
-  </si>
-  <si>
-    <t>IMF Reserve Position</t>
-  </si>
-  <si>
-    <t>Gold and Foreign Exchange</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -127,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -424,1183 +353,1303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Current Account</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>47895.3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>32251.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>27687</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>30494</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>50624.5</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>57302.13733</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>78366.788</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>96028.54300000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>102190.401</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>131413.554</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>110726.906</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>82815.90199999997</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>99323.69280628201</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>50177.167</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>35485.33656191001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>48553.59099999999</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>35154.78899999999</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>29907.27180000002</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>38296.14199999999</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>32295.01921594452</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>52918</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>59091.072</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>58700.312</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Goods</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>86049</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>79144</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>69854</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>72117</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>97762.39999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>104774.1821767</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>130152.228</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>139489.151</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>130825.219</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>170379.686</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>140355.212</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>124182.104</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>140528.592</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>113029.636</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>96551.50600000001</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>113326.694</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>109223.594</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>102045.828</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>117113.215</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>114620.761</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>124739</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>137486.41</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>170572.9399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-10700.7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>-10670.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-8366</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-5996</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>-15300</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>-8198.5643767</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-10872.026</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>-9427.401</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1384.306</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1556.655</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>4173.359</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>6555.718000000004</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>1456.542806281992</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>-8541.891999999996</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>-9592.493515429996</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>-10706.24499999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>-20631.58999999999</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>-18917.42599999999</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>-22858.415</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>-17514.93200000001</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>-10875</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>-47161.31499999996</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>-60727.94699999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ServicesCredit</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>73013.86199999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>77290.518</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>99867.289</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>103640.519</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>98750.88</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>111465.807</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>118880.458</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>125337.417</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>132684.983</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>137618.263</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>136095.456</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>147595.66</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>159384.217</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>162374.513</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>170222</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>92966.61400000002</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>86740.94899999999</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ServicesDebit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>83886.899</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>86717.91899999999</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>98482.98299999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>102084.387</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>94577.52099999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>104910.089</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>117423.915193718</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>133879.309</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>142277.47651543</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>148324.508</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>156727.046</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>166513.086</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>182242.632</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>179889.445</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>181096</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>140127.929</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>147468.896</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>-15422.489</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>-19285.319</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>-12569.822</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>-14811.832</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>-15817.621</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>-17167.511</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>-19445.459</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>-22040.253</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>-23908.97</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>-26049.507</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>-24565.241</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>-23458.766</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>-29621.633</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>-27687.987</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>-25925</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>-27427.2304</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>-32451.584</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>18683.775</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>22633.052</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>29052.081</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>28509.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>32168.07</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>31617.111</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>28959.27799999999</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>24821.482</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>29166.84099999999</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>33233.037</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>26941.11800000001</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>31515.302</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>32469.633</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>30217.665</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>30833</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>-7568.741</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>-14563.251</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Government Goods and Services</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>-349.784</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>-439.676</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>-358.881</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>-589.554</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>-608.567</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>-502.2619999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>-523.515</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>-414.842</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>-218.409</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>-348.607</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>-602.8660000000002</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>-665.194</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>-1398.262</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>-757.537</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>-712</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>-614.1030000000001</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>-904.042</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Primary Income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-20886</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>-28909</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>-25623</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>-25061</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>-22537</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>-24402.1</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-23942.7</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>-17294</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>-13984.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>-23032.87</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>-14214.225</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>-26131.498</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>-21600.126</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>-35841.373</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>-33975.20292266001</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>-36623.83</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>-32111.92200000001</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>-34592.35520000001</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>-38658.272</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>-45082.18378405547</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>-39495</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>-28520.201</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>-41550.52499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Primary IncomeCredit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>20626.6</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>31107.2</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>39067.4</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>40335.457</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>39629.943</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>38351.81</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>52520.822</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>42296.888</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>47655.566</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>52395.137</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>48674.488</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>47452.4405</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>53706.464</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>60413.655</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>65345</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>53124.394</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>98165.69100000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Primary IncomeDebit</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
         <v>44569.3</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>48401.2</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>53051.9</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>63368.327</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>53844.168</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>64483.308</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>74120.948</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>78138.261</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>81630.76892266001</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>89018.967</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>80786.41</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>82044.79569999999</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>92364.736</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>105495.8387840555</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>104840</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>81644.594</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>139716.217</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Investment Income</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>-23407.9</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>-16988.2</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-13362.2</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>-22139.213</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>-12751.225</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>-24049.403</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>-19269.15800000001</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>-32759.633</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>-29968.54032266</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>-31722.288</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>-26516.50100000001</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>-28985.8652</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>-33810.52</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>-37425.49978405546</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>-30266</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>-20459.134</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>-34947.543</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Secondary Income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-6567</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-7313</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>-8178</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-10566</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>-9299.9</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>-14871.38047</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-16970.714</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>-16739.207</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-16034.624</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-17489.917</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>-19587.44</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>-21790.422</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>-21061.316</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>-18469.204</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>-17498.473</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>-17443.028</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>-21325.293</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>-18628.775</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>-17300.386</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>-19728.626</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>-21450</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>-2713.822</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>-9594.155999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Net Errors and Omissions</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>-12330.18</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>-20539.535</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-12234.1</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-25428.261</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>-27367.39</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>-65387.44399999999</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>-27773.61240628201</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>-23531.21100000001</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>-605.3375619099979</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>-5450.687380999996</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>25081.55500000001</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>-23899.12609913995</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>-17131.87751385999</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>-35878.13721594452</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>-6846</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>-572.149</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>-25465.333</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Reserve Assets</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
         <v>-29046.18</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>-32102.882</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-50893.052</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>12425.487</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>-3134.823</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>2627.554</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>-94681.86500000001</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>-3873.014000000002</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>-14648.73</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>36507.448</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>-3750.258999999997</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>-5860.346900860053</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>-16408.56548614</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>-7758.251999999999</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>-8416</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>19296.595</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>-45685.716</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Special Drawing Rights</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
         <v>16.981</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>-8.581</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-3.974</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-25.501</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>-6492.774</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>836.658</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>189.519</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>209.498</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>-444.611</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>-29.82899999999998</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>-1138.296</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>2700.02072286</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>219.365</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>8.599000000000011</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>67</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>-107.047</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>-20339.401</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>IMF Reserve Position</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>1882.037</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>392.96</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>175.904</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-509.593</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>-388.777</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>62.32100000000001</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>-1218.683</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>19.40400000000001</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>-530.319</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>-112.098</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>3.945999999999955</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>-176.16668944</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>351.1695138599998</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>-685.0939999999999</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>-782</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>-1245.726</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>-121.47</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Gold and Foreign Exchange</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>-30945.198</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>-32487.261</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-51064.982</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>12960.581</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>3746.728</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>1728.575000000001</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>-93652.701</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>-4101.916</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>-13673.8</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>36649.375</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>-2615.908999999998</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>-8384.200934280052</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>-16979.1</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>-7081.756999999998</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>-7699</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>20649.368</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>-25224.845</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>